--- a/Appendix/8. Study Results/8.4 Evaluation/8.4 Excel Document Outlining Evaluation Results.xlsx
+++ b/Appendix/8. Study Results/8.4 Evaluation/8.4 Excel Document Outlining Evaluation Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\Studies\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\Appendix\8. Study Results\8.4 Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P12" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Appendix/8. Study Results/8.4 Evaluation/8.4 Excel Document Outlining Evaluation Results.xlsx
+++ b/Appendix/8. Study Results/8.4 Evaluation/8.4 Excel Document Outlining Evaluation Results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>Participant Num</t>
   </si>
@@ -125,9 +125,6 @@
     <t>It was ok but it felt a bit plain</t>
   </si>
   <si>
-    <t>More plain , need someone to teach and not as much help in knowing what do</t>
-  </si>
-  <si>
     <t>It was colourful, simple to do and easy to understand</t>
   </si>
   <si>
@@ -156,6 +153,15 @@
   </si>
   <si>
     <t>Recipes For Life cause you could do more. The first one was slightly easier to use</t>
+  </si>
+  <si>
+    <t>Liked the app, felt you could do more in it but felt RecetteTek was straightforward too</t>
+  </si>
+  <si>
+    <t>More plain , need someone to teach me  and not as much help in knowing what do</t>
+  </si>
+  <si>
+    <t>Evaluation Results - Recipes For Life</t>
   </si>
 </sst>
 </file>
@@ -519,10 +525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AC17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,6 +559,24 @@
     <col min="29" max="29" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -1137,7 +1164,7 @@
         <v>82.5</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -1222,7 +1249,7 @@
         <v>85</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P12">
         <v>3</v>
@@ -1259,7 +1286,7 @@
         <v>27.5</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="AC12" t="s">
         <v>1</v>
@@ -1307,7 +1334,7 @@
         <v>90</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -1344,7 +1371,7 @@
         <v>40</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC13" t="s">
         <v>1</v>
@@ -1392,7 +1419,7 @@
         <v>72.5</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P14">
         <v>4</v>
@@ -1429,10 +1456,10 @@
         <v>87.5</v>
       </c>
       <c r="AA14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1476,6 +1503,9 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="N15" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="P15">
         <v>3</v>
       </c>
@@ -1511,15 +1541,15 @@
         <v>52.5</v>
       </c>
       <c r="AA15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M17" s="3">
         <f>SUM(M6:M15)  / 10</f>
@@ -1531,11 +1561,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="P3:AA3"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="19" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>